--- a/Selenium JAVA/Oct_Selenium/snapdeal.xlsx
+++ b/Selenium JAVA/Oct_Selenium/snapdeal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pratham.shanbhag\eclipse-workspace\Oct_Selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53195A98-E84D-4374-9A33-1ED289EA499F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685A8170-1D4E-4780-B868-E38FF049AE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>https://www.snapdeal.com/</t>
   </si>
   <si>
     <t>Divinext Plastic Assorted Tally Counting Digital Machine Finger Watch One Size</t>
+  </si>
+  <si>
+    <t>I Phone 16 Pro MAX</t>
   </si>
 </sst>
 </file>
@@ -391,7 +394,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -411,8 +414,12 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
